--- a/Data/ActualDamages.xlsx
+++ b/Data/ActualDamages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DRIVE1/BACKUP/Research/DamageNowcasts/ReplicationPackage/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2387A4C3-6325-454E-8FC2-1FAFDA12E2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A9E51E-038F-7441-8C3E-FFDF7A8B78B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="800" windowWidth="18020" windowHeight="22580" xr2:uid="{578585D8-B18D-1B4F-9C7E-27909B464B1A}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
-    <t>Lili</t>
-  </si>
-  <si>
     <t>Claudette</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>noaa_cost</t>
+  </si>
+  <si>
+    <t>Lilli</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,13 +581,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
         <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -595,7 +595,7 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1">
         <v>1104500000</v>
@@ -613,7 +613,7 @@
         <v>2003</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>180000000</v>
@@ -626,7 +626,7 @@
         <v>2003</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>5484000000</v>
@@ -644,7 +644,7 @@
         <v>2004</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>15999500000</v>
@@ -662,7 +662,7 @@
         <v>2004</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>9800000000</v>
@@ -680,7 +680,7 @@
         <v>2004</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
         <v>130000000</v>
@@ -698,7 +698,7 @@
         <v>2004</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>20500500000</v>
@@ -716,7 +716,7 @@
         <v>2004</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>7496500000</v>
@@ -734,7 +734,7 @@
         <v>2005</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>320000000</v>
@@ -746,7 +746,7 @@
         <v>2005</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>2495000000</v>
@@ -764,7 +764,7 @@
         <v>2005</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
         <v>125029500000</v>
@@ -782,7 +782,7 @@
         <v>2005</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>70000000</v>
@@ -794,7 +794,7 @@
         <v>2005</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
         <v>18500100000</v>
@@ -812,7 +812,7 @@
         <v>2005</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
         <v>19000000000</v>
@@ -830,7 +830,7 @@
         <v>2007</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
         <v>50000000</v>
@@ -842,7 +842,7 @@
         <v>2008</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
         <v>1267300000</v>
@@ -860,7 +860,7 @@
         <v>2008</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
         <v>5997000000</v>
@@ -878,7 +878,7 @@
         <v>2008</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
         <v>29998800000</v>
@@ -896,7 +896,7 @@
         <v>2011</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
         <v>13494000000</v>
@@ -911,7 +911,7 @@
         <v>2012</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
         <v>2763500000</v>
@@ -926,7 +926,7 @@
         <v>2012</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
         <v>65039600000</v>
@@ -941,7 +941,7 @@
         <v>2016</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
         <v>550000000</v>
@@ -959,7 +959,7 @@
         <v>2016</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
         <v>10000000000</v>
@@ -977,7 +977,7 @@
         <v>2017</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1">
         <v>125000000000</v>
@@ -995,7 +995,7 @@
         <v>2017</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1">
         <v>50000000000</v>
@@ -1013,7 +1013,7 @@
         <v>2017</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1">
         <v>225000000</v>
@@ -1028,7 +1028,7 @@
         <v>2018</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
         <v>24000000000</v>
@@ -1046,7 +1046,7 @@
         <v>2018</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
         <v>24975000000</v>
@@ -1064,7 +1064,7 @@
         <v>2019</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1">
         <v>600000000</v>
@@ -1082,7 +1082,7 @@
         <v>2019</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1">
         <v>1610000000</v>
@@ -1097,7 +1097,7 @@
         <v>2020</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1">
         <v>1075000000</v>
@@ -1112,7 +1112,7 @@
         <v>2020</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
         <v>4757000000</v>
@@ -1127,7 +1127,7 @@
         <v>2020</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
         <v>23215000000</v>
@@ -1145,7 +1145,7 @@
         <v>2020</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1">
         <v>7274000000</v>
@@ -1163,7 +1163,7 @@
         <v>2020</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1">
         <v>2867000000</v>
@@ -1178,7 +1178,7 @@
         <v>2020</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
         <v>4352000000</v>
@@ -1193,7 +1193,7 @@
         <v>2021</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1">
         <v>73572000000</v>
@@ -1211,7 +1211,7 @@
         <v>2021</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="1">
         <v>1016000000</v>
@@ -1226,7 +1226,7 @@
         <v>2022</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="1">
         <v>111800000000</v>
@@ -1244,7 +1244,7 @@
         <v>2022</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="1">
         <v>1020000000</v>
@@ -1259,7 +1259,7 @@
         <v>2023</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="1">
         <v>3456000000</v>
@@ -1274,7 +1274,7 @@
         <v>2024</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="1">
         <v>7219000000</v>
@@ -1289,7 +1289,7 @@
         <v>2024</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="1">
         <v>2476000000</v>
@@ -1301,7 +1301,7 @@
         <v>2024</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="1">
         <v>1300000000</v>
@@ -1313,7 +1313,7 @@
         <v>2024</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="1">
         <v>78700000000</v>
@@ -1325,7 +1325,7 @@
         <v>2024</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="1">
         <v>34300000000</v>
